--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value218.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value218.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.124350772128426</v>
+        <v>1.34808886051178</v>
       </c>
       <c r="B1">
-        <v>1.427298954756091</v>
+        <v>2.48285174369812</v>
       </c>
       <c r="C1">
-        <v>1.474660506981674</v>
+        <v>4.926457405090332</v>
       </c>
       <c r="D1">
-        <v>1.567975106729264</v>
+        <v>2.364908695220947</v>
       </c>
       <c r="E1">
-        <v>1.870147742079567</v>
+        <v>0.913968563079834</v>
       </c>
     </row>
   </sheetData>
